--- a/ValueSet-adultcheck-lifecode.xlsx
+++ b/ValueSet-adultcheck-lifecode.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://tsti.example.com/ValueSet/adultcheck-lifecode</t>
+    <t>https://fhirisolationroom.azurehealthcareapis.com/ValueSet/adultcheck-lifecode</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-07T17:23:39+08:00</t>
+    <t>2023-08-10T13:03:13+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
